--- a/node_modules/write-excel-file/test-output/test-cells-row-span.xlsx
+++ b/node_modules/write-excel-file/test-output/test-cells-row-span.xlsx
@@ -162,7 +162,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="4">
-        <v>45556.54950616898</v>
+        <v>45706.51544939815</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -177,7 +177,7 @@
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
-        <v>45556.54950616898</v>
+        <v>45706.51544939815</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>4</v>
